--- a/Flight Payload/Perovskite Performance/GaAs_Assembled/GaAs_PostVibe/9Dec23.xlsx
+++ b/Flight Payload/Perovskite Performance/GaAs_Assembled/GaAs_PostVibe/9Dec23.xlsx
@@ -501,10 +501,10 @@
         <v>5728.470588235294</v>
       </c>
       <c r="D2" t="n">
-        <v>32.25490196078431</v>
+        <v>1.576485921836965</v>
       </c>
       <c r="E2" t="n">
-        <v>207248.5018634587</v>
+        <v>5.875079720469502</v>
       </c>
       <c r="F2" t="n">
         <v>32.25490196078431</v>
@@ -545,10 +545,10 @@
         <v>5728.470588235294</v>
       </c>
       <c r="D3" t="n">
-        <v>32.25490196078431</v>
+        <v>1.576485921836965</v>
       </c>
       <c r="E3" t="n">
-        <v>231514.1568008768</v>
+        <v>6.562962411755059</v>
       </c>
       <c r="F3" t="n">
         <v>32.25490196078431</v>
